--- a/Negative_ions/lps.xlsx
+++ b/Negative_ions/lps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Negative_ions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FFB20C-1111-4F61-B741-D7A5D5FA7A02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48B0BF8-5A59-491E-A5BD-2ABD1BA319E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +73,50 @@
     <t>average</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>随机对照实验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对照组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>W5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>W6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>W7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-test</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -82,7 +126,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +289,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -691,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,10 +797,22 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R208"/>
+  <dimension ref="A1:Y208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="J62" workbookViewId="0">
+      <selection activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1129,7 +1192,7 @@
     <col min="17" max="17" width="11.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1160,15 +1223,15 @@
       <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43952</v>
       </c>
@@ -1216,7 +1279,7 @@
       </c>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43953</v>
       </c>
@@ -1270,7 +1333,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43954</v>
       </c>
@@ -1324,7 +1387,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43955</v>
       </c>
@@ -1378,7 +1441,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43956</v>
       </c>
@@ -1432,7 +1495,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43957</v>
       </c>
@@ -1472,7 +1535,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43958</v>
       </c>
@@ -1512,7 +1575,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43959</v>
       </c>
@@ -1536,7 +1599,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43960</v>
       </c>
@@ -1553,16 +1616,16 @@
         <f t="shared" si="1"/>
         <v>1466.9286281666666</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43961</v>
       </c>
@@ -1594,7 +1657,7 @@
       </c>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43962</v>
       </c>
@@ -1632,7 +1695,7 @@
       </c>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43963</v>
       </c>
@@ -1669,7 +1732,7 @@
         <v>15577.512186562344</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43964</v>
       </c>
@@ -1686,11 +1749,11 @@
         <f t="shared" si="1"/>
         <v>33182.419711199997</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
       <c r="M14" s="11" t="s">
         <v>9</v>
       </c>
@@ -1711,7 +1774,7 @@
         <v>2.2604445518461169</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43965</v>
       </c>
@@ -1728,11 +1791,11 @@
         <f t="shared" si="1"/>
         <v>5323.9061131333337</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
       <c r="M15" s="10" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +1816,7 @@
         <v>2.24048150755892E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43966</v>
       </c>
@@ -1771,8 +1834,11 @@
         <v>5216.236372233333</v>
       </c>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43967</v>
       </c>
@@ -1789,8 +1855,11 @@
         <f t="shared" si="1"/>
         <v>417.05666816666667</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43968</v>
       </c>
@@ -1807,8 +1876,23 @@
         <f t="shared" si="1"/>
         <v>656.77028236666672</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43969</v>
       </c>
@@ -1825,8 +1909,41 @@
         <f t="shared" si="1"/>
         <v>426.27156983333333</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43970</v>
       </c>
@@ -1843,8 +1960,43 @@
         <f t="shared" si="1"/>
         <v>1748.7237385999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M20" s="22">
+        <v>44409</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1639.722029</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1838.0445580000001</v>
+      </c>
+      <c r="P20" s="4">
+        <v>433.6643502</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" ref="Q20:Q72" si="6">AVERAGE(N20:P20)</f>
+        <v>1303.8103124000002</v>
+      </c>
+      <c r="R20" s="22">
+        <v>44378</v>
+      </c>
+      <c r="S20" s="4">
+        <v>42707.946490000002</v>
+      </c>
+      <c r="T20" s="4">
+        <v>698.97635609999998</v>
+      </c>
+      <c r="U20" s="4">
+        <v>309.06458329999998</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" ref="V20:V32" si="7">AVERAGE(S20:U20)</f>
+        <v>14571.995809800001</v>
+      </c>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43971</v>
       </c>
@@ -1861,8 +2013,43 @@
         <f t="shared" si="1"/>
         <v>3992.9376697666667</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M21" s="22">
+        <v>44411</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1172.680556</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1482.642857</v>
+      </c>
+      <c r="P21" s="4">
+        <v>232.33796939999999</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="6"/>
+        <v>962.55379413333333</v>
+      </c>
+      <c r="R21" s="22">
+        <v>44379</v>
+      </c>
+      <c r="S21" s="4">
+        <v>620.38247569999999</v>
+      </c>
+      <c r="T21" s="4">
+        <v>640.72531289999995</v>
+      </c>
+      <c r="U21" s="4">
+        <v>226.8727399</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="7"/>
+        <v>495.9935094999999</v>
+      </c>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43972</v>
       </c>
@@ -1879,8 +2066,43 @@
         <f t="shared" si="1"/>
         <v>5478.0679700000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M22" s="22">
+        <v>44412</v>
+      </c>
+      <c r="N22" s="4">
+        <v>910.28530869999997</v>
+      </c>
+      <c r="O22" s="4">
+        <v>324.86814090000001</v>
+      </c>
+      <c r="P22" s="4">
+        <v>136.5003849</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="6"/>
+        <v>457.21794483333332</v>
+      </c>
+      <c r="R22" s="22">
+        <v>44380</v>
+      </c>
+      <c r="S22" s="4">
+        <v>37007.215279999997</v>
+      </c>
+      <c r="T22" s="4">
+        <v>809.06963789999998</v>
+      </c>
+      <c r="U22" s="4">
+        <v>329.09444439999999</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="7"/>
+        <v>12715.126454099998</v>
+      </c>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43973</v>
       </c>
@@ -1897,8 +2119,43 @@
         <f t="shared" si="1"/>
         <v>730.38584859999992</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M23" s="22">
+        <v>44413</v>
+      </c>
+      <c r="N23" s="4">
+        <v>14412.290510000001</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1142.0485550000001</v>
+      </c>
+      <c r="P23" s="4">
+        <v>86.811538459999994</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="6"/>
+        <v>5213.7168678200005</v>
+      </c>
+      <c r="R23" s="22">
+        <v>44381</v>
+      </c>
+      <c r="S23" s="4">
+        <v>717.4801946</v>
+      </c>
+      <c r="T23" s="4">
+        <v>584.63307850000001</v>
+      </c>
+      <c r="U23" s="4">
+        <v>238.5135511</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="7"/>
+        <v>513.54227473333333</v>
+      </c>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43974</v>
       </c>
@@ -1915,8 +2172,43 @@
         <f t="shared" si="1"/>
         <v>11605.432321466666</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M24" s="22">
+        <v>44415</v>
+      </c>
+      <c r="N24" s="4">
+        <v>9084.7745030000005</v>
+      </c>
+      <c r="O24" s="4">
+        <v>4072.966132</v>
+      </c>
+      <c r="P24" s="4">
+        <v>186.92171909999999</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="6"/>
+        <v>4448.2207847</v>
+      </c>
+      <c r="R24" s="22">
+        <v>44382</v>
+      </c>
+      <c r="S24" s="4">
+        <v>761.44784419999996</v>
+      </c>
+      <c r="T24" s="4">
+        <v>698.05980529999999</v>
+      </c>
+      <c r="U24" s="4">
+        <v>409.07162729999999</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="7"/>
+        <v>622.8597589333333</v>
+      </c>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43975</v>
       </c>
@@ -1933,8 +2225,40 @@
         <f t="shared" si="1"/>
         <v>1547.7795879333332</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M25" s="22">
+        <v>44416</v>
+      </c>
+      <c r="N25" s="4">
+        <v>528.7854519</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1182.803842</v>
+      </c>
+      <c r="P25" s="4">
+        <v>294.1814842</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="6"/>
+        <v>668.5902593666666</v>
+      </c>
+      <c r="R25" s="22">
+        <v>44383</v>
+      </c>
+      <c r="S25" s="4">
+        <v>707.80347219999999</v>
+      </c>
+      <c r="T25" s="4">
+        <v>705.93055560000005</v>
+      </c>
+      <c r="U25" s="4">
+        <v>339.35486109999999</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="7"/>
+        <v>584.36296296666671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43976</v>
       </c>
@@ -1951,8 +2275,40 @@
         <f t="shared" si="1"/>
         <v>289.46458336000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M26" s="22">
+        <v>44417</v>
+      </c>
+      <c r="N26" s="4">
+        <v>511.11005829999999</v>
+      </c>
+      <c r="O26" s="4">
+        <v>725.58224159999997</v>
+      </c>
+      <c r="P26" s="4">
+        <v>316.8728198</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="6"/>
+        <v>517.85503989999995</v>
+      </c>
+      <c r="R26" s="22">
+        <v>44384</v>
+      </c>
+      <c r="S26" s="4">
+        <v>616.78541670000004</v>
+      </c>
+      <c r="T26" s="4">
+        <v>782.53472220000003</v>
+      </c>
+      <c r="U26" s="4">
+        <v>323.12152780000002</v>
+      </c>
+      <c r="V26" s="4">
+        <f t="shared" si="7"/>
+        <v>574.14722223333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43977</v>
       </c>
@@ -1969,8 +2325,40 @@
         <f t="shared" si="1"/>
         <v>1442.7387576333333</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M27" s="22">
+        <v>44418</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1437.2100660000001</v>
+      </c>
+      <c r="O27" s="4">
+        <v>625.01640569999995</v>
+      </c>
+      <c r="P27" s="4">
+        <v>17822.664720000001</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="6"/>
+        <v>6628.2970639000005</v>
+      </c>
+      <c r="R27" s="22">
+        <v>44385</v>
+      </c>
+      <c r="S27" s="4">
+        <v>617.42361110000002</v>
+      </c>
+      <c r="T27" s="4">
+        <v>618.8125</v>
+      </c>
+      <c r="U27" s="4">
+        <v>223.65416669999999</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="7"/>
+        <v>486.63009259999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43978</v>
       </c>
@@ -1987,8 +2375,40 @@
         <f t="shared" si="1"/>
         <v>453.97184046666672</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M28" s="22">
+        <v>44419</v>
+      </c>
+      <c r="N28" s="4">
+        <v>95917.118640000001</v>
+      </c>
+      <c r="O28" s="4">
+        <v>804.81786939999995</v>
+      </c>
+      <c r="P28" s="4">
+        <v>5658.070162</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="6"/>
+        <v>34126.668890466666</v>
+      </c>
+      <c r="R28" s="22">
+        <v>44386</v>
+      </c>
+      <c r="S28" s="4">
+        <v>683.49791670000002</v>
+      </c>
+      <c r="T28" s="4">
+        <v>674.68055560000005</v>
+      </c>
+      <c r="U28" s="4">
+        <v>354.41944439999997</v>
+      </c>
+      <c r="V28" s="4">
+        <f t="shared" si="7"/>
+        <v>570.86597223333331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43979</v>
       </c>
@@ -2005,8 +2425,40 @@
         <f t="shared" si="1"/>
         <v>408.10795036666667</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M29" s="22">
+        <v>44420</v>
+      </c>
+      <c r="N29" s="4">
+        <v>78684.283230000001</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1394.014001</v>
+      </c>
+      <c r="P29" s="4">
+        <v>3232.4773070000001</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="6"/>
+        <v>27770.258179333334</v>
+      </c>
+      <c r="R29" s="22">
+        <v>44387</v>
+      </c>
+      <c r="S29" s="4">
+        <v>721.32314110000004</v>
+      </c>
+      <c r="T29" s="4">
+        <v>686.36422879999998</v>
+      </c>
+      <c r="U29" s="4">
+        <v>293.06353789999997</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" si="7"/>
+        <v>566.91696926666668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43980</v>
       </c>
@@ -2023,8 +2475,40 @@
         <f t="shared" si="1"/>
         <v>1323.3570415000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M30" s="22">
+        <v>44421</v>
+      </c>
+      <c r="N30" s="4">
+        <v>23410.065200000001</v>
+      </c>
+      <c r="O30" s="4">
+        <v>762.07849829999998</v>
+      </c>
+      <c r="P30" s="4">
+        <v>312.45231000000001</v>
+      </c>
+      <c r="Q30" s="4">
+        <f t="shared" si="6"/>
+        <v>8161.5320027666676</v>
+      </c>
+      <c r="R30" s="22">
+        <v>44388</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1248.3259210000001</v>
+      </c>
+      <c r="T30" s="4">
+        <v>1250.3665510000001</v>
+      </c>
+      <c r="U30" s="4">
+        <v>189.5420431</v>
+      </c>
+      <c r="V30" s="4">
+        <f t="shared" si="7"/>
+        <v>896.07817169999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43981</v>
       </c>
@@ -2041,8 +2525,40 @@
         <f t="shared" si="1"/>
         <v>19955.442585333334</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M31" s="22">
+        <v>44422</v>
+      </c>
+      <c r="N31" s="4">
+        <v>52698.690759999998</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1138.5855160000001</v>
+      </c>
+      <c r="P31" s="4">
+        <v>338.96646800000002</v>
+      </c>
+      <c r="Q31" s="4">
+        <f t="shared" si="6"/>
+        <v>18058.747581333333</v>
+      </c>
+      <c r="R31" s="22">
+        <v>44389</v>
+      </c>
+      <c r="S31" s="4">
+        <v>853.59207779999997</v>
+      </c>
+      <c r="T31" s="4">
+        <v>12505.71369</v>
+      </c>
+      <c r="U31" s="4">
+        <v>146.4829743</v>
+      </c>
+      <c r="V31" s="4">
+        <f t="shared" si="7"/>
+        <v>4501.9295806999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43982</v>
       </c>
@@ -2059,8 +2575,40 @@
         <f t="shared" si="1"/>
         <v>2153.5866923333333</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M32" s="22">
+        <v>44426</v>
+      </c>
+      <c r="N32" s="4">
+        <v>34077.98846</v>
+      </c>
+      <c r="O32" s="4">
+        <v>543.41792369999996</v>
+      </c>
+      <c r="P32" s="4">
+        <v>514.36849710000001</v>
+      </c>
+      <c r="Q32" s="4">
+        <f t="shared" si="6"/>
+        <v>11711.924960266666</v>
+      </c>
+      <c r="R32" s="22">
+        <v>44390</v>
+      </c>
+      <c r="S32" s="4">
+        <v>644.39888810000002</v>
+      </c>
+      <c r="T32" s="4">
+        <v>30699.62126</v>
+      </c>
+      <c r="U32" s="4">
+        <v>166.2918694</v>
+      </c>
+      <c r="V32" s="4">
+        <f t="shared" si="7"/>
+        <v>10503.437339166667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43983</v>
       </c>
@@ -2077,8 +2625,25 @@
         <f t="shared" si="1"/>
         <v>33188.880143633338</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M33" s="22">
+        <v>44427</v>
+      </c>
+      <c r="N33" s="4">
+        <v>2261.5226939999998</v>
+      </c>
+      <c r="O33" s="4">
+        <v>829.50433840000005</v>
+      </c>
+      <c r="P33" s="4">
+        <v>500.02342609999999</v>
+      </c>
+      <c r="Q33" s="4">
+        <f t="shared" si="6"/>
+        <v>1197.0168194999999</v>
+      </c>
+      <c r="R33" s="22"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43984</v>
       </c>
@@ -2095,8 +2660,25 @@
         <f t="shared" si="1"/>
         <v>697.38264680000009</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M34" s="22">
+        <v>44428</v>
+      </c>
+      <c r="N34" s="4">
+        <v>39719.945469999999</v>
+      </c>
+      <c r="O34" s="4">
+        <v>635.41883410000003</v>
+      </c>
+      <c r="P34" s="4">
+        <v>337.4</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" si="6"/>
+        <v>13564.254768033332</v>
+      </c>
+      <c r="R34" s="22"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43985</v>
       </c>
@@ -2113,8 +2695,25 @@
         <f t="shared" si="1"/>
         <v>371.27181373333337</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M35" s="22">
+        <v>44429</v>
+      </c>
+      <c r="N35" s="4">
+        <v>28573.629440000001</v>
+      </c>
+      <c r="O35" s="4">
+        <v>371.88440859999997</v>
+      </c>
+      <c r="P35" s="4">
+        <v>268.25343950000001</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="6"/>
+        <v>9737.9224293666666</v>
+      </c>
+      <c r="R35" s="22"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43986</v>
       </c>
@@ -2131,8 +2730,25 @@
         <f t="shared" si="1"/>
         <v>842.57817083333339</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M36" s="22">
+        <v>44430</v>
+      </c>
+      <c r="N36" s="4">
+        <v>48820.994780000001</v>
+      </c>
+      <c r="O36" s="4">
+        <v>89.890710380000002</v>
+      </c>
+      <c r="P36" s="4">
+        <v>115.2572924</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" si="6"/>
+        <v>16342.047594260001</v>
+      </c>
+      <c r="R36" s="22"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43987</v>
       </c>
@@ -2149,8 +2765,25 @@
         <f t="shared" si="1"/>
         <v>498.56729320000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M37" s="22">
+        <v>44431</v>
+      </c>
+      <c r="N37" s="4">
+        <v>92381.063890000005</v>
+      </c>
+      <c r="O37" s="4">
+        <v>1099.840179</v>
+      </c>
+      <c r="P37" s="4">
+        <v>260.96554200000003</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="6"/>
+        <v>31247.289870333338</v>
+      </c>
+      <c r="R37" s="22"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43988</v>
       </c>
@@ -2167,8 +2800,25 @@
         <f t="shared" si="1"/>
         <v>396.67545303333333</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M38" s="22">
+        <v>44432</v>
+      </c>
+      <c r="N38" s="4">
+        <v>16966.462500000001</v>
+      </c>
+      <c r="O38" s="4">
+        <v>788.0067659</v>
+      </c>
+      <c r="P38" s="4">
+        <v>443.1153564</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="6"/>
+        <v>6065.8615407666684</v>
+      </c>
+      <c r="R38" s="22"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43989</v>
       </c>
@@ -2185,8 +2835,25 @@
         <f t="shared" si="1"/>
         <v>490.47045073333339</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M39" s="22">
+        <v>44433</v>
+      </c>
+      <c r="N39" s="4">
+        <v>6287.9746379999997</v>
+      </c>
+      <c r="O39" s="4">
+        <v>701.50296739999999</v>
+      </c>
+      <c r="P39" s="4">
+        <v>461.67971010000002</v>
+      </c>
+      <c r="Q39" s="4">
+        <f t="shared" si="6"/>
+        <v>2483.7191051666664</v>
+      </c>
+      <c r="R39" s="22"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43990</v>
       </c>
@@ -2203,8 +2870,25 @@
         <f t="shared" si="1"/>
         <v>531.92628653333338</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M40" s="22">
+        <v>44434</v>
+      </c>
+      <c r="N40" s="4">
+        <v>355.69633879999998</v>
+      </c>
+      <c r="O40" s="4">
+        <v>729.51490509999996</v>
+      </c>
+      <c r="P40" s="4">
+        <v>354.4665708</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="6"/>
+        <v>479.89260489999998</v>
+      </c>
+      <c r="R40" s="22"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43991</v>
       </c>
@@ -2221,8 +2905,25 @@
         <f t="shared" si="1"/>
         <v>445.15376796666663</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M41" s="22">
+        <v>44435</v>
+      </c>
+      <c r="N41" s="4">
+        <v>113.0552727</v>
+      </c>
+      <c r="O41" s="4">
+        <v>722.0385321</v>
+      </c>
+      <c r="P41" s="4">
+        <v>264.44355430000002</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" si="6"/>
+        <v>366.51245303333332</v>
+      </c>
+      <c r="R41" s="22"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43992</v>
       </c>
@@ -2239,8 +2940,25 @@
         <f t="shared" si="1"/>
         <v>475.52052069999996</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M42" s="22">
+        <v>44436</v>
+      </c>
+      <c r="N42" s="4">
+        <v>3555.4046410000001</v>
+      </c>
+      <c r="O42" s="4">
+        <v>394.45500729999998</v>
+      </c>
+      <c r="P42" s="4">
+        <v>211.92089989999999</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" si="6"/>
+        <v>1387.2601827333335</v>
+      </c>
+      <c r="R42" s="22"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43993</v>
       </c>
@@ -2257,8 +2975,25 @@
         <f t="shared" si="1"/>
         <v>407.72754633333329</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M43" s="22">
+        <v>44437</v>
+      </c>
+      <c r="N43" s="4">
+        <v>3481.4877700000002</v>
+      </c>
+      <c r="O43" s="4">
+        <v>581.69501130000003</v>
+      </c>
+      <c r="P43" s="4">
+        <v>182.15766740000001</v>
+      </c>
+      <c r="Q43" s="4">
+        <f t="shared" si="6"/>
+        <v>1415.1134829</v>
+      </c>
+      <c r="R43" s="19"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43994</v>
       </c>
@@ -2275,8 +3010,25 @@
         <f t="shared" si="1"/>
         <v>454.08215169999994</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M44" s="22">
+        <v>44438</v>
+      </c>
+      <c r="N44" s="4">
+        <v>20890.338619999999</v>
+      </c>
+      <c r="O44" s="4">
+        <v>1219.544562</v>
+      </c>
+      <c r="P44" s="4">
+        <v>415.90732759999997</v>
+      </c>
+      <c r="Q44" s="4">
+        <f t="shared" si="6"/>
+        <v>7508.5968365333329</v>
+      </c>
+      <c r="R44" s="19"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43995</v>
       </c>
@@ -2293,8 +3045,25 @@
         <f t="shared" si="1"/>
         <v>472.58796296666668</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M45" s="22">
+        <v>44441</v>
+      </c>
+      <c r="N45" s="4">
+        <v>503.14204139999998</v>
+      </c>
+      <c r="O45" s="4">
+        <v>637.83737020000001</v>
+      </c>
+      <c r="P45" s="4">
+        <v>264.61269609999999</v>
+      </c>
+      <c r="Q45" s="4">
+        <f t="shared" si="6"/>
+        <v>468.53070256666666</v>
+      </c>
+      <c r="R45" s="19"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43996</v>
       </c>
@@ -2311,8 +3080,25 @@
         <f t="shared" si="1"/>
         <v>407.77021080000003</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M46" s="22">
+        <v>44442</v>
+      </c>
+      <c r="N46" s="4">
+        <v>196.02253519999999</v>
+      </c>
+      <c r="O46" s="4">
+        <v>664.86785710000004</v>
+      </c>
+      <c r="P46" s="4">
+        <v>320.40323719999998</v>
+      </c>
+      <c r="Q46" s="4">
+        <f t="shared" si="6"/>
+        <v>393.76454316666667</v>
+      </c>
+      <c r="R46" s="19"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43997</v>
       </c>
@@ -2329,8 +3115,25 @@
         <f t="shared" si="1"/>
         <v>448.13356479999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M47" s="22">
+        <v>44443</v>
+      </c>
+      <c r="N47" s="4">
+        <v>3684.2157560000001</v>
+      </c>
+      <c r="O47" s="4">
+        <v>764.10297030000004</v>
+      </c>
+      <c r="P47" s="4">
+        <v>253.3773449</v>
+      </c>
+      <c r="Q47" s="4">
+        <f t="shared" si="6"/>
+        <v>1567.2320237333333</v>
+      </c>
+      <c r="R47" s="19"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43998</v>
       </c>
@@ -2347,8 +3150,25 @@
         <f t="shared" si="1"/>
         <v>506.2827208033334</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M48" s="22">
+        <v>44444</v>
+      </c>
+      <c r="N48" s="4">
+        <v>5935.5462369999996</v>
+      </c>
+      <c r="O48" s="4">
+        <v>737.94019930000002</v>
+      </c>
+      <c r="P48" s="4">
+        <v>296.643934</v>
+      </c>
+      <c r="Q48" s="4">
+        <f t="shared" si="6"/>
+        <v>2323.3767900999997</v>
+      </c>
+      <c r="R48" s="19"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43999</v>
       </c>
@@ -2365,8 +3185,25 @@
         <f t="shared" si="1"/>
         <v>201.94595223333332</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M49" s="22">
+        <v>44445</v>
+      </c>
+      <c r="N49" s="4">
+        <v>2347.460145</v>
+      </c>
+      <c r="O49" s="4">
+        <v>550.14179100000001</v>
+      </c>
+      <c r="P49" s="4">
+        <v>296.814708</v>
+      </c>
+      <c r="Q49" s="4">
+        <f t="shared" si="6"/>
+        <v>1064.805548</v>
+      </c>
+      <c r="R49" s="19"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44000</v>
       </c>
@@ -2383,8 +3220,25 @@
         <f t="shared" si="1"/>
         <v>402.71342593333333</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M50" s="22">
+        <v>44446</v>
+      </c>
+      <c r="N50" s="4">
+        <v>526.8415698</v>
+      </c>
+      <c r="O50" s="4">
+        <v>2447</v>
+      </c>
+      <c r="P50" s="4">
+        <v>382.57910010000001</v>
+      </c>
+      <c r="Q50" s="4">
+        <f t="shared" si="6"/>
+        <v>1118.8068899666666</v>
+      </c>
+      <c r="R50" s="19"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44001</v>
       </c>
@@ -2401,8 +3255,25 @@
         <f t="shared" si="1"/>
         <v>457.1585648333334</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M51" s="22">
+        <v>44447</v>
+      </c>
+      <c r="N51" s="4">
+        <v>455.4191702</v>
+      </c>
+      <c r="O51" s="4">
+        <v>5312.5026180000004</v>
+      </c>
+      <c r="P51" s="4">
+        <v>277.46676200000002</v>
+      </c>
+      <c r="Q51" s="4">
+        <f t="shared" si="6"/>
+        <v>2015.1295167333335</v>
+      </c>
+      <c r="R51" s="19"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44002</v>
       </c>
@@ -2419,8 +3290,25 @@
         <f t="shared" si="1"/>
         <v>305.36862187666668</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M52" s="22">
+        <v>44448</v>
+      </c>
+      <c r="N52" s="4">
+        <v>810.02284080000004</v>
+      </c>
+      <c r="O52" s="4">
+        <v>53781.633710000002</v>
+      </c>
+      <c r="P52" s="4">
+        <v>191.42560800000001</v>
+      </c>
+      <c r="Q52" s="4">
+        <f t="shared" si="6"/>
+        <v>18261.027386266665</v>
+      </c>
+      <c r="R52" s="19"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44003</v>
       </c>
@@ -2437,8 +3325,25 @@
         <f t="shared" si="1"/>
         <v>410.42314816666664</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M53" s="22">
+        <v>44449</v>
+      </c>
+      <c r="N53" s="4">
+        <v>543.18057550000003</v>
+      </c>
+      <c r="O53" s="4">
+        <v>22703.182639999999</v>
+      </c>
+      <c r="P53" s="4">
+        <v>191.58555960000001</v>
+      </c>
+      <c r="Q53" s="4">
+        <f t="shared" si="6"/>
+        <v>7812.6495916999993</v>
+      </c>
+      <c r="R53" s="19"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44004</v>
       </c>
@@ -2455,8 +3360,25 @@
         <f t="shared" si="1"/>
         <v>596.4893800333333</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M54" s="22">
+        <v>44450</v>
+      </c>
+      <c r="N54" s="4">
+        <v>400.01264040000001</v>
+      </c>
+      <c r="O54" s="4">
+        <v>32725.82834</v>
+      </c>
+      <c r="P54" s="4">
+        <v>199.37359549999999</v>
+      </c>
+      <c r="Q54" s="4">
+        <f t="shared" si="6"/>
+        <v>11108.404858633332</v>
+      </c>
+      <c r="R54" s="19"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44005</v>
       </c>
@@ -2473,8 +3395,25 @@
         <f t="shared" si="1"/>
         <v>598.0952814333333</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M55" s="22">
+        <v>44452</v>
+      </c>
+      <c r="N55" s="4">
+        <v>700.69309840000005</v>
+      </c>
+      <c r="O55" s="4">
+        <v>97483.076920000007</v>
+      </c>
+      <c r="P55" s="4">
+        <v>168.44273129999999</v>
+      </c>
+      <c r="Q55" s="4">
+        <f t="shared" si="6"/>
+        <v>32784.07091656667</v>
+      </c>
+      <c r="R55" s="19"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44006</v>
       </c>
@@ -2491,8 +3430,25 @@
         <f t="shared" si="1"/>
         <v>1736.1540158666667</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M56" s="22">
+        <v>44453</v>
+      </c>
+      <c r="N56" s="4">
+        <v>605.55398730000002</v>
+      </c>
+      <c r="O56" s="4">
+        <v>14222.87146</v>
+      </c>
+      <c r="P56" s="4">
+        <v>193.9448763</v>
+      </c>
+      <c r="Q56" s="4">
+        <f t="shared" si="6"/>
+        <v>5007.4567745333334</v>
+      </c>
+      <c r="R56" s="19"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44007</v>
       </c>
@@ -2509,8 +3465,25 @@
         <f t="shared" si="1"/>
         <v>524.81992306666666</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M57" s="22">
+        <v>44454</v>
+      </c>
+      <c r="N57" s="4">
+        <v>547.32042249999995</v>
+      </c>
+      <c r="O57" s="4">
+        <v>1285.4709760000001</v>
+      </c>
+      <c r="P57" s="4">
+        <v>392.24402250000003</v>
+      </c>
+      <c r="Q57" s="4">
+        <f t="shared" si="6"/>
+        <v>741.67847366666672</v>
+      </c>
+      <c r="R57" s="19"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44008</v>
       </c>
@@ -2527,8 +3500,25 @@
         <f t="shared" si="1"/>
         <v>637.12800926666671</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M58" s="22">
+        <v>44455</v>
+      </c>
+      <c r="N58" s="4">
+        <v>508.48246239999997</v>
+      </c>
+      <c r="O58" s="4">
+        <v>11952.680039999999</v>
+      </c>
+      <c r="P58" s="4">
+        <v>380.50430419999998</v>
+      </c>
+      <c r="Q58" s="4">
+        <f t="shared" si="6"/>
+        <v>4280.5556021999992</v>
+      </c>
+      <c r="R58" s="19"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44009</v>
       </c>
@@ -2545,8 +3535,25 @@
         <f t="shared" si="1"/>
         <v>428.12866406666666</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M59" s="22">
+        <v>44456</v>
+      </c>
+      <c r="N59" s="4">
+        <v>407.82556499999998</v>
+      </c>
+      <c r="O59" s="4">
+        <v>20240.246190000002</v>
+      </c>
+      <c r="P59" s="4">
+        <v>471.16925250000003</v>
+      </c>
+      <c r="Q59" s="4">
+        <f t="shared" si="6"/>
+        <v>7039.7470025000002</v>
+      </c>
+      <c r="R59" s="19"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44010</v>
       </c>
@@ -2563,8 +3570,25 @@
         <f t="shared" si="1"/>
         <v>17337.206628600001</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M60" s="22">
+        <v>44457</v>
+      </c>
+      <c r="N60" s="4">
+        <v>464.85269119999998</v>
+      </c>
+      <c r="O60" s="4">
+        <v>40628.46011</v>
+      </c>
+      <c r="P60" s="4">
+        <v>287.30943930000001</v>
+      </c>
+      <c r="Q60" s="4">
+        <f t="shared" si="6"/>
+        <v>13793.540746833334</v>
+      </c>
+      <c r="R60" s="19"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44011</v>
       </c>
@@ -2581,8 +3605,25 @@
         <f t="shared" si="1"/>
         <v>28292.276117533333</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M61" s="22">
+        <v>44458</v>
+      </c>
+      <c r="N61" s="4">
+        <v>469.33170050000001</v>
+      </c>
+      <c r="O61" s="4">
+        <v>59342.586499999998</v>
+      </c>
+      <c r="P61" s="4">
+        <v>205.78586419999999</v>
+      </c>
+      <c r="Q61" s="4">
+        <f t="shared" si="6"/>
+        <v>20005.901354899997</v>
+      </c>
+      <c r="R61" s="19"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44012</v>
       </c>
@@ -2599,8 +3640,25 @@
         <f t="shared" si="1"/>
         <v>20586.3588289</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M62" s="22">
+        <v>44459</v>
+      </c>
+      <c r="N62" s="4">
+        <v>603.72982709999997</v>
+      </c>
+      <c r="O62" s="4">
+        <v>25641.053749999999</v>
+      </c>
+      <c r="P62" s="4">
+        <v>81.464052289999998</v>
+      </c>
+      <c r="Q62" s="4">
+        <f t="shared" si="6"/>
+        <v>8775.4158764633339</v>
+      </c>
+      <c r="R62" s="19"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44013</v>
       </c>
@@ -2617,8 +3675,25 @@
         <f t="shared" si="1"/>
         <v>14571.995809800001</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M63" s="22">
+        <v>44460</v>
+      </c>
+      <c r="N63" s="4">
+        <v>1107.767556</v>
+      </c>
+      <c r="O63" s="4">
+        <v>59484.919170000001</v>
+      </c>
+      <c r="P63" s="4">
+        <v>386.363764</v>
+      </c>
+      <c r="Q63" s="4">
+        <f t="shared" si="6"/>
+        <v>20326.350163333333</v>
+      </c>
+      <c r="R63" s="19"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44014</v>
       </c>
@@ -2635,8 +3710,25 @@
         <f t="shared" si="1"/>
         <v>495.9935094999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M64" s="22">
+        <v>44461</v>
+      </c>
+      <c r="N64" s="4">
+        <v>708.90113799999995</v>
+      </c>
+      <c r="O64" s="4">
+        <v>25416.823100000001</v>
+      </c>
+      <c r="P64" s="4">
+        <v>287.73826459999998</v>
+      </c>
+      <c r="Q64" s="4">
+        <f t="shared" si="6"/>
+        <v>8804.4875008666677</v>
+      </c>
+      <c r="R64" s="19"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44015</v>
       </c>
@@ -2653,8 +3745,29 @@
         <f t="shared" si="1"/>
         <v>12715.126454099998</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M65" s="22">
+        <v>44462</v>
+      </c>
+      <c r="N65" s="4">
+        <v>564.6025641</v>
+      </c>
+      <c r="O65" s="4">
+        <v>9200.3850569999995</v>
+      </c>
+      <c r="P65" s="4">
+        <v>8414.4599429999998</v>
+      </c>
+      <c r="Q65" s="4">
+        <f t="shared" si="6"/>
+        <v>6059.8158546999994</v>
+      </c>
+      <c r="R65" s="23"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="24"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44016</v>
       </c>
@@ -2671,8 +3784,29 @@
         <f t="shared" si="1"/>
         <v>513.54227473333333</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M66" s="22">
+        <v>44463</v>
+      </c>
+      <c r="N66" s="4">
+        <v>694.86419750000005</v>
+      </c>
+      <c r="O66" s="4">
+        <v>898.96657630000004</v>
+      </c>
+      <c r="P66" s="4">
+        <v>20712.67841</v>
+      </c>
+      <c r="Q66" s="4">
+        <f t="shared" si="6"/>
+        <v>7435.5030612666669</v>
+      </c>
+      <c r="R66" s="23"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="24"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44017</v>
       </c>
@@ -2686,11 +3820,32 @@
         <v>409.07162729999999</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E130" si="6">AVERAGE(B67:D67)</f>
+        <f t="shared" ref="E67:E130" si="8">AVERAGE(B67:D67)</f>
         <v>622.8597589333333</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M67" s="22">
+        <v>44464</v>
+      </c>
+      <c r="N67" s="4">
+        <v>949.41327620000004</v>
+      </c>
+      <c r="O67" s="4">
+        <v>661.61860469999999</v>
+      </c>
+      <c r="P67" s="4">
+        <v>3487.058908</v>
+      </c>
+      <c r="Q67" s="4">
+        <f t="shared" si="6"/>
+        <v>1699.3635962999999</v>
+      </c>
+      <c r="R67" s="23"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44018</v>
       </c>
@@ -2704,11 +3859,32 @@
         <v>339.35486109999999</v>
       </c>
       <c r="E68" s="4">
+        <f t="shared" si="8"/>
+        <v>584.36296296666671</v>
+      </c>
+      <c r="M68" s="22">
+        <v>44465</v>
+      </c>
+      <c r="N68" s="4">
+        <v>509.09772229999999</v>
+      </c>
+      <c r="O68" s="4">
+        <v>1341.1614119999999</v>
+      </c>
+      <c r="P68" s="4">
+        <v>41758.692759999998</v>
+      </c>
+      <c r="Q68" s="4">
         <f t="shared" si="6"/>
-        <v>584.36296296666671</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14536.317298100001</v>
+      </c>
+      <c r="R68" s="23"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="24"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44019</v>
       </c>
@@ -2722,11 +3898,32 @@
         <v>323.12152780000002</v>
       </c>
       <c r="E69" s="4">
+        <f t="shared" si="8"/>
+        <v>574.14722223333331</v>
+      </c>
+      <c r="M69" s="22">
+        <v>44466</v>
+      </c>
+      <c r="N69" s="4">
+        <v>626.54610949999994</v>
+      </c>
+      <c r="O69" s="4">
+        <v>477.5706806</v>
+      </c>
+      <c r="P69" s="4">
+        <v>171.2606534</v>
+      </c>
+      <c r="Q69" s="4">
         <f t="shared" si="6"/>
-        <v>574.14722223333331</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>425.12581449999993</v>
+      </c>
+      <c r="R69" s="23"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="24"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44020</v>
       </c>
@@ -2740,11 +3937,32 @@
         <v>223.65416669999999</v>
       </c>
       <c r="E70" s="4">
+        <f t="shared" si="8"/>
+        <v>486.63009259999995</v>
+      </c>
+      <c r="M70" s="22">
+        <v>44467</v>
+      </c>
+      <c r="N70" s="4">
+        <v>758.11921970000003</v>
+      </c>
+      <c r="O70" s="4">
+        <v>1401.832189</v>
+      </c>
+      <c r="P70" s="4">
+        <v>4119.8481099999999</v>
+      </c>
+      <c r="Q70" s="4">
         <f t="shared" si="6"/>
-        <v>486.63009259999995</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2093.2665062333331</v>
+      </c>
+      <c r="R70" s="23"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44021</v>
       </c>
@@ -2758,11 +3976,32 @@
         <v>354.41944439999997</v>
       </c>
       <c r="E71" s="4">
+        <f t="shared" si="8"/>
+        <v>570.86597223333331</v>
+      </c>
+      <c r="M71" s="22">
+        <v>44468</v>
+      </c>
+      <c r="N71" s="4">
+        <v>1400.7703489999999</v>
+      </c>
+      <c r="O71" s="4">
+        <v>1471.029783</v>
+      </c>
+      <c r="P71" s="4">
+        <v>69053.876109999997</v>
+      </c>
+      <c r="Q71" s="4">
         <f t="shared" si="6"/>
-        <v>570.86597223333331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23975.225414</v>
+      </c>
+      <c r="R71" s="23"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="24"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44022</v>
       </c>
@@ -2776,11 +4015,32 @@
         <v>293.06353789999997</v>
       </c>
       <c r="E72" s="4">
+        <f t="shared" si="8"/>
+        <v>566.91696926666668</v>
+      </c>
+      <c r="M72" s="22">
+        <v>44469</v>
+      </c>
+      <c r="N72" s="4">
+        <v>1055.663462</v>
+      </c>
+      <c r="O72" s="4">
+        <v>7401.2779140000002</v>
+      </c>
+      <c r="P72" s="4">
+        <v>34690.165359999999</v>
+      </c>
+      <c r="Q72" s="4">
         <f t="shared" si="6"/>
-        <v>566.91696926666668</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14382.368912</v>
+      </c>
+      <c r="R72" s="23"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="24"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44023</v>
       </c>
@@ -2794,11 +4054,11 @@
         <v>189.5420431</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>896.07817169999998</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44024</v>
       </c>
@@ -2812,11 +4072,47 @@
         <v>146.4829743</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4501.9295806999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M74" t="s">
+        <v>22</v>
+      </c>
+      <c r="N74" s="4">
+        <f>AVERAGE(N20:N72)</f>
+        <v>11433.546786554716</v>
+      </c>
+      <c r="O74" s="4">
+        <f t="shared" ref="O74:V74" si="9">AVERAGE(O20:O72)</f>
+        <v>9869.3820885033947</v>
+      </c>
+      <c r="P74" s="4">
+        <f t="shared" si="9"/>
+        <v>4175.8333941066039</v>
+      </c>
+      <c r="Q74" s="4">
+        <f t="shared" si="9"/>
+        <v>8492.9207563882355</v>
+      </c>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4">
+        <f t="shared" si="9"/>
+        <v>6762.1248253230769</v>
+      </c>
+      <c r="T74" s="4">
+        <f t="shared" si="9"/>
+        <v>3950.4221733769232</v>
+      </c>
+      <c r="U74" s="4">
+        <f t="shared" si="9"/>
+        <v>272.9651823615385</v>
+      </c>
+      <c r="V74" s="4">
+        <f t="shared" si="9"/>
+        <v>3661.8373936871794</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44025</v>
       </c>
@@ -2830,11 +4126,30 @@
         <v>166.2918694</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10503.437339166667</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M75" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75" s="15">
+        <f>(N74-S74)/S74</f>
+        <v>0.69082161035210565</v>
+      </c>
+      <c r="O75" s="15">
+        <f t="shared" ref="O75:Q75" si="10">(O74-T74)/T74</f>
+        <v>1.4983107261335544</v>
+      </c>
+      <c r="P75" s="15">
+        <f t="shared" si="10"/>
+        <v>14.298044087453512</v>
+      </c>
+      <c r="Q75" s="15">
+        <f t="shared" si="10"/>
+        <v>1.3193058138052762</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44026</v>
       </c>
@@ -2848,11 +4163,30 @@
         <v>187.6164095</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>629.85638483333332</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M76" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76">
+        <f>_xlfn.T.TEST(N20:N72,S20:S32,1,2)</f>
+        <v>0.24421060802939715</v>
+      </c>
+      <c r="O76">
+        <f>_xlfn.T.TEST(O20:O72,T20:T32,1,2)</f>
+        <v>0.1458777608079555</v>
+      </c>
+      <c r="P76">
+        <f t="shared" ref="O76:Q76" si="11">_xlfn.T.TEST(P20:P72,U20:U32,1,2)</f>
+        <v>0.12704822958095024</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="11"/>
+        <v>3.585488794009821E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44027</v>
       </c>
@@ -2866,11 +4200,11 @@
         <v>205.5149409</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>491.71794326666668</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44028</v>
       </c>
@@ -2884,11 +4218,11 @@
         <v>224.5438719</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>517.06569176666665</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44029</v>
       </c>
@@ -2902,11 +4236,11 @@
         <v>249.07152780000001</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1403.9324214999999</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44030</v>
       </c>
@@ -2920,7 +4254,7 @@
         <v>386.88819439999997</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11760.668518133332</v>
       </c>
     </row>
@@ -2938,7 +4272,7 @@
         <v>255.41388889999999</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21457.803016733335</v>
       </c>
     </row>
@@ -2956,7 +4290,7 @@
         <v>230.04381079999999</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>996.94147136666663</v>
       </c>
     </row>
@@ -2974,7 +4308,7 @@
         <v>238.04374999999999</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1295.5653483333333</v>
       </c>
     </row>
@@ -2992,7 +4326,7 @@
         <v>158.44513889999999</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1728.6481479666663</v>
       </c>
     </row>
@@ -3010,7 +4344,7 @@
         <v>211.94846799999999</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2431.1920546666665</v>
       </c>
     </row>
@@ -3028,7 +4362,7 @@
         <v>265.81499650000001</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3127.1495901666663</v>
       </c>
     </row>
@@ -3046,7 +4380,7 @@
         <v>242.77708329999999</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2063.5097221000001</v>
       </c>
     </row>
@@ -3064,7 +4398,7 @@
         <v>269.63585819999997</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>451.45580993333334</v>
       </c>
     </row>
@@ -3082,7 +4416,7 @@
         <v>372.25434330000002</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>590.9932708</v>
       </c>
     </row>
@@ -3097,7 +4431,7 @@
         <v>255.43015980000001</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>407.14489225</v>
       </c>
     </row>
@@ -3112,7 +4446,7 @@
         <v>220.48400559999999</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>353.98400559999999</v>
       </c>
     </row>
@@ -3130,7 +4464,7 @@
         <v>238.8305556</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>880.24961086666656</v>
       </c>
     </row>
@@ -3148,7 +4482,7 @@
         <v>282.5619777</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2034.0609062333333</v>
       </c>
     </row>
@@ -3166,7 +4500,7 @@
         <v>433.6643502</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1303.8103124000002</v>
       </c>
     </row>
@@ -3184,7 +4518,7 @@
         <v>304.76736110000002</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>583.84815690000005</v>
       </c>
     </row>
@@ -3202,7 +4536,7 @@
         <v>232.33796939999999</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>962.55379413333333</v>
       </c>
     </row>
@@ -3220,7 +4554,7 @@
         <v>136.5003849</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>457.21794483333332</v>
       </c>
     </row>
@@ -3238,7 +4572,7 @@
         <v>86.811538459999994</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5213.7168678200005</v>
       </c>
     </row>
@@ -3256,7 +4590,7 @@
         <v>169.59534529999999</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6650.6445214333335</v>
       </c>
     </row>
@@ -3274,7 +4608,7 @@
         <v>186.92171909999999</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4448.2207847</v>
       </c>
     </row>
@@ -3292,7 +4626,7 @@
         <v>294.1814842</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>668.5902593666666</v>
       </c>
     </row>
@@ -3310,7 +4644,7 @@
         <v>316.8728198</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>517.85503989999995</v>
       </c>
     </row>
@@ -3328,7 +4662,7 @@
         <v>17822.664720000001</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6628.2970639000005</v>
       </c>
     </row>
@@ -3346,7 +4680,7 @@
         <v>5658.070162</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>34126.668890466666</v>
       </c>
     </row>
@@ -3364,7 +4698,7 @@
         <v>3232.4773070000001</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>27770.258179333334</v>
       </c>
     </row>
@@ -3382,7 +4716,7 @@
         <v>312.45231000000001</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8161.5320027666676</v>
       </c>
     </row>
@@ -3400,7 +4734,7 @@
         <v>338.96646800000002</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18058.747581333333</v>
       </c>
     </row>
@@ -3418,7 +4752,7 @@
         <v>211.51428569999999</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>35284.290225266668</v>
       </c>
     </row>
@@ -3436,7 +4770,7 @@
         <v>483.53025939999998</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>42523.26977596667</v>
       </c>
     </row>
@@ -3454,7 +4788,7 @@
         <v>389.95483869999998</v>
       </c>
       <c r="E110" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30198.094854199997</v>
       </c>
     </row>
@@ -3472,7 +4806,7 @@
         <v>514.36849710000001</v>
       </c>
       <c r="E111" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11711.924960266666</v>
       </c>
     </row>
@@ -3490,7 +4824,7 @@
         <v>500.02342609999999</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1197.0168194999999</v>
       </c>
     </row>
@@ -3508,7 +4842,7 @@
         <v>337.4</v>
       </c>
       <c r="E113" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13564.254768033332</v>
       </c>
     </row>
@@ -3526,7 +4860,7 @@
         <v>268.25343950000001</v>
       </c>
       <c r="E114" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9737.9224293666666</v>
       </c>
     </row>
@@ -3544,7 +4878,7 @@
         <v>115.2572924</v>
       </c>
       <c r="E115" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16342.047594260001</v>
       </c>
     </row>
@@ -3562,7 +4896,7 @@
         <v>260.96554200000003</v>
       </c>
       <c r="E116" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31247.289870333338</v>
       </c>
     </row>
@@ -3580,7 +4914,7 @@
         <v>443.1153564</v>
       </c>
       <c r="E117" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6065.8615407666684</v>
       </c>
     </row>
@@ -3598,7 +4932,7 @@
         <v>461.67971010000002</v>
       </c>
       <c r="E118" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2483.7191051666664</v>
       </c>
     </row>
@@ -3616,7 +4950,7 @@
         <v>354.4665708</v>
       </c>
       <c r="E119" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>479.89260489999998</v>
       </c>
     </row>
@@ -3634,7 +4968,7 @@
         <v>264.44355430000002</v>
       </c>
       <c r="E120" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>366.51245303333332</v>
       </c>
     </row>
@@ -3652,7 +4986,7 @@
         <v>211.92089989999999</v>
       </c>
       <c r="E121" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1387.2601827333335</v>
       </c>
     </row>
@@ -3670,7 +5004,7 @@
         <v>182.15766740000001</v>
       </c>
       <c r="E122" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1415.1134829</v>
       </c>
     </row>
@@ -3688,7 +5022,7 @@
         <v>415.90732759999997</v>
       </c>
       <c r="E123" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7508.5968365333329</v>
       </c>
     </row>
@@ -3706,7 +5040,7 @@
         <v>359.9562363</v>
       </c>
       <c r="E124" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7273.0883187666668</v>
       </c>
     </row>
@@ -3724,7 +5058,7 @@
         <v>292.39252340000002</v>
       </c>
       <c r="E125" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>607.49623810000003</v>
       </c>
     </row>
@@ -3742,7 +5076,7 @@
         <v>264.61269609999999</v>
       </c>
       <c r="E126" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>468.53070256666666</v>
       </c>
     </row>
@@ -3760,7 +5094,7 @@
         <v>320.40323719999998</v>
       </c>
       <c r="E127" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>393.76454316666667</v>
       </c>
     </row>
@@ -3778,7 +5112,7 @@
         <v>253.3773449</v>
       </c>
       <c r="E128" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1567.2320237333333</v>
       </c>
     </row>
@@ -3796,7 +5130,7 @@
         <v>296.643934</v>
       </c>
       <c r="E129" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2323.3767900999997</v>
       </c>
     </row>
@@ -3814,7 +5148,7 @@
         <v>296.814708</v>
       </c>
       <c r="E130" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1064.805548</v>
       </c>
     </row>
@@ -3832,7 +5166,7 @@
         <v>382.57910010000001</v>
       </c>
       <c r="E131" s="4">
-        <f t="shared" ref="E131:E194" si="7">AVERAGE(B131:D131)</f>
+        <f t="shared" ref="E131:E194" si="12">AVERAGE(B131:D131)</f>
         <v>1118.8068899666666</v>
       </c>
     </row>
@@ -3850,7 +5184,7 @@
         <v>277.46676200000002</v>
       </c>
       <c r="E132" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2015.1295167333335</v>
       </c>
     </row>
@@ -3868,7 +5202,7 @@
         <v>191.42560800000001</v>
       </c>
       <c r="E133" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>18261.027386266665</v>
       </c>
     </row>
@@ -3886,7 +5220,7 @@
         <v>191.58555960000001</v>
       </c>
       <c r="E134" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7812.6495916999993</v>
       </c>
     </row>
@@ -3904,7 +5238,7 @@
         <v>199.37359549999999</v>
       </c>
       <c r="E135" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>11108.404858633332</v>
       </c>
     </row>
@@ -3922,7 +5256,7 @@
         <v>120.8055944</v>
       </c>
       <c r="E136" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>32933.26619336666</v>
       </c>
     </row>
@@ -3940,7 +5274,7 @@
         <v>168.44273129999999</v>
       </c>
       <c r="E137" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>32784.07091656667</v>
       </c>
     </row>
@@ -3958,7 +5292,7 @@
         <v>193.9448763</v>
       </c>
       <c r="E138" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5007.4567745333334</v>
       </c>
     </row>
@@ -3976,7 +5310,7 @@
         <v>392.24402250000003</v>
       </c>
       <c r="E139" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>741.67847366666672</v>
       </c>
     </row>
@@ -3994,7 +5328,7 @@
         <v>380.50430419999998</v>
       </c>
       <c r="E140" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4280.5556021999992</v>
       </c>
     </row>
@@ -4012,7 +5346,7 @@
         <v>471.16925250000003</v>
       </c>
       <c r="E141" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7039.7470025000002</v>
       </c>
     </row>
@@ -4030,7 +5364,7 @@
         <v>287.30943930000001</v>
       </c>
       <c r="E142" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>13793.540746833334</v>
       </c>
     </row>
@@ -4048,7 +5382,7 @@
         <v>205.78586419999999</v>
       </c>
       <c r="E143" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>20005.901354899997</v>
       </c>
     </row>
@@ -4066,7 +5400,7 @@
         <v>81.464052289999998</v>
       </c>
       <c r="E144" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8775.4158764633339</v>
       </c>
     </row>
@@ -4084,7 +5418,7 @@
         <v>386.363764</v>
       </c>
       <c r="E145" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>20326.350163333333</v>
       </c>
     </row>
@@ -4102,7 +5436,7 @@
         <v>287.73826459999998</v>
       </c>
       <c r="E146" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8804.4875008666677</v>
       </c>
     </row>
@@ -4120,7 +5454,7 @@
         <v>8414.4599429999998</v>
       </c>
       <c r="E147" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6059.8158546999994</v>
       </c>
     </row>
@@ -4138,7 +5472,7 @@
         <v>20712.67841</v>
       </c>
       <c r="E148" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7435.5030612666669</v>
       </c>
     </row>
@@ -4156,7 +5490,7 @@
         <v>3487.058908</v>
       </c>
       <c r="E149" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1699.3635962999999</v>
       </c>
     </row>
@@ -4174,7 +5508,7 @@
         <v>41758.692759999998</v>
       </c>
       <c r="E150" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>14536.317298100001</v>
       </c>
     </row>
@@ -4192,7 +5526,7 @@
         <v>171.2606534</v>
       </c>
       <c r="E151" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>425.12581449999993</v>
       </c>
     </row>
@@ -4210,7 +5544,7 @@
         <v>4119.8481099999999</v>
       </c>
       <c r="E152" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2093.2665062333331</v>
       </c>
     </row>
@@ -4228,7 +5562,7 @@
         <v>69053.876109999997</v>
       </c>
       <c r="E153" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>23975.225414</v>
       </c>
     </row>
@@ -4246,7 +5580,7 @@
         <v>34690.165359999999</v>
       </c>
       <c r="E154" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>14382.368912</v>
       </c>
     </row>
@@ -4264,7 +5598,7 @@
         <v>2415.417829</v>
       </c>
       <c r="E155" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1662.3142607666668</v>
       </c>
     </row>
@@ -4282,7 +5616,7 @@
         <v>4304.7482520000003</v>
       </c>
       <c r="E156" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1839.0789627666666</v>
       </c>
     </row>
@@ -4345,7 +5679,7 @@
         <v>293.07206070000001</v>
       </c>
       <c r="E166" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>14678.363004566665</v>
       </c>
     </row>
@@ -4363,7 +5697,7 @@
         <v>95.839581519999996</v>
       </c>
       <c r="E167" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>27854.81791184</v>
       </c>
     </row>
@@ -4381,7 +5715,7 @@
         <v>323.6059942</v>
       </c>
       <c r="E168" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>20522.414705400002</v>
       </c>
     </row>
@@ -4399,7 +5733,7 @@
         <v>264.56771229999998</v>
       </c>
       <c r="E169" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1548.2939488333332</v>
       </c>
     </row>
@@ -4417,7 +5751,7 @@
         <v>397.8671875</v>
       </c>
       <c r="E170" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>913.19278046666659</v>
       </c>
     </row>
@@ -4435,7 +5769,7 @@
         <v>456.07336179999999</v>
       </c>
       <c r="E171" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3191.287760366667</v>
       </c>
     </row>
@@ -4453,7 +5787,7 @@
         <v>305.63750870000001</v>
       </c>
       <c r="E172" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1012.8056164</v>
       </c>
     </row>
@@ -4471,7 +5805,7 @@
         <v>307.01534170000002</v>
       </c>
       <c r="E173" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>384.38850639999993</v>
       </c>
     </row>
@@ -4489,7 +5823,7 @@
         <v>340.04402520000002</v>
       </c>
       <c r="E174" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>348.96672790000002</v>
       </c>
     </row>
@@ -4507,7 +5841,7 @@
         <v>262.95267919999998</v>
       </c>
       <c r="E175" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>204.86858359999997</v>
       </c>
     </row>
@@ -4525,7 +5859,7 @@
         <v>325.36136210000001</v>
       </c>
       <c r="E176" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>227.27060940000001</v>
       </c>
     </row>
@@ -4543,7 +5877,7 @@
         <v>260.76987450000001</v>
       </c>
       <c r="E177" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>654.74864859999991</v>
       </c>
     </row>
@@ -4561,7 +5895,7 @@
         <v>82.702247189999994</v>
       </c>
       <c r="E178" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10848.312989830001</v>
       </c>
     </row>
@@ -4579,7 +5913,7 @@
         <v>227.0967742</v>
       </c>
       <c r="E179" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>955.9035093333332</v>
       </c>
     </row>
@@ -4597,7 +5931,7 @@
         <v>449.3268539</v>
       </c>
       <c r="E180" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1699.7386186000001</v>
       </c>
     </row>
@@ -4615,7 +5949,7 @@
         <v>107.19710139999999</v>
       </c>
       <c r="E181" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>72822.084093033336</v>
       </c>
     </row>
@@ -4633,7 +5967,7 @@
         <v>101.3319027</v>
       </c>
       <c r="E182" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>96198.437652233333</v>
       </c>
     </row>
@@ -4651,7 +5985,7 @@
         <v>545.937636</v>
       </c>
       <c r="E183" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>47672.935287533328</v>
       </c>
     </row>
@@ -4669,7 +6003,7 @@
         <v>70.347322719999994</v>
       </c>
       <c r="E184" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>65397.363957573332</v>
       </c>
     </row>
@@ -4687,7 +6021,7 @@
         <v>411.52728560000003</v>
       </c>
       <c r="E185" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1387.6276537000001</v>
       </c>
     </row>
@@ -4705,7 +6039,7 @@
         <v>411.42847119999999</v>
       </c>
       <c r="E186" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>608.42936863333341</v>
       </c>
     </row>
@@ -4723,7 +6057,7 @@
         <v>457.33099579999998</v>
       </c>
       <c r="E187" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>639.81357706666665</v>
       </c>
     </row>
@@ -4741,7 +6075,7 @@
         <v>305.4278711</v>
       </c>
       <c r="E188" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>16763.289328966664</v>
       </c>
     </row>
@@ -4759,7 +6093,7 @@
         <v>299.8227273</v>
       </c>
       <c r="E189" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>44778.333137899994</v>
       </c>
     </row>
@@ -4777,7 +6111,7 @@
         <v>278.98651530000001</v>
       </c>
       <c r="E190" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>40904.992070433334</v>
       </c>
     </row>
@@ -4795,7 +6129,7 @@
         <v>495.31369769999998</v>
       </c>
       <c r="E191" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1151.5645678000001</v>
       </c>
     </row>
@@ -4813,7 +6147,7 @@
         <v>429.56993010000002</v>
       </c>
       <c r="E192" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>561.65672106666659</v>
       </c>
     </row>
@@ -4831,7 +6165,7 @@
         <v>365.64768679999997</v>
       </c>
       <c r="E193" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6162.8979334666656</v>
       </c>
     </row>
@@ -4849,7 +6183,7 @@
         <v>380.41350210000002</v>
       </c>
       <c r="E194" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>11282.5561112</v>
       </c>
     </row>
@@ -4867,7 +6201,7 @@
         <v>187.68533529999999</v>
       </c>
       <c r="E195" s="4">
-        <f t="shared" ref="E195:E208" si="8">AVERAGE(B195:D195)</f>
+        <f t="shared" ref="E195:E208" si="13">AVERAGE(B195:D195)</f>
         <v>35234.988700300004</v>
       </c>
     </row>
@@ -4885,7 +6219,7 @@
         <v>237.97533469999999</v>
       </c>
       <c r="E196" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>38454.39569493333</v>
       </c>
     </row>
@@ -4903,7 +6237,7 @@
         <v>230.522807</v>
       </c>
       <c r="E197" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>31551.903699000002</v>
       </c>
     </row>
@@ -4921,7 +6255,7 @@
         <v>265.93310100000002</v>
       </c>
       <c r="E198" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4401.4209938333333</v>
       </c>
     </row>
@@ -4939,7 +6273,7 @@
         <v>164.3192253</v>
       </c>
       <c r="E199" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>21743.6776575</v>
       </c>
     </row>
@@ -4957,7 +6291,7 @@
         <v>125.4585436</v>
       </c>
       <c r="E200" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>24986.246423366665</v>
       </c>
     </row>
@@ -4975,7 +6309,7 @@
         <v>162.8545455</v>
       </c>
       <c r="E201" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>19195.220011499998</v>
       </c>
     </row>
@@ -4993,7 +6327,7 @@
         <v>116.6446043</v>
       </c>
       <c r="E202" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>72499.888958100011</v>
       </c>
     </row>
@@ -5011,7 +6345,7 @@
         <v>769.67197450000003</v>
       </c>
       <c r="E203" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>13708.391156633334</v>
       </c>
     </row>
@@ -5029,7 +6363,7 @@
         <v>426.62182739999997</v>
       </c>
       <c r="E204" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2039.1156377333336</v>
       </c>
     </row>
@@ -5047,7 +6381,7 @@
         <v>315.79110250000002</v>
       </c>
       <c r="E205" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>52704.416193833335</v>
       </c>
     </row>
@@ -5065,7 +6399,7 @@
         <v>156.4290053</v>
       </c>
       <c r="E206" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>25812.096064400001</v>
       </c>
     </row>
@@ -5083,7 +6417,7 @@
         <v>398.51383959999998</v>
       </c>
       <c r="E207" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>25084.927596833335</v>
       </c>
     </row>
@@ -5101,14 +6435,15 @@
         <v>172.13664120000001</v>
       </c>
       <c r="E208" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>61040.886160599999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M18:V18"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Negative_ions/lps.xlsx
+++ b/Negative_ions/lps.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Negative_ions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48B0BF8-5A59-491E-A5BD-2ABD1BA319E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E085BC4F-FDC3-4732-88E8-D9BBD06F5712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lps" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lps!$B$1:$D$208</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +119,21 @@
   <si>
     <t>T-test</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对照组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验组相比增加量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-test</t>
   </si>
 </sst>
 </file>
@@ -302,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +512,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -742,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -802,17 +826,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J62" workbookViewId="0">
-      <selection activeCell="O77" sqref="O77"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1223,13 +1253,13 @@
       <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1442,7 +1472,7 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="27">
         <v>43956</v>
       </c>
       <c r="B6" s="4">
@@ -1496,7 +1526,7 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="27">
         <v>43957</v>
       </c>
       <c r="B7" s="4">
@@ -1536,7 +1566,7 @@
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="27">
         <v>43958</v>
       </c>
       <c r="B8" s="4">
@@ -1576,7 +1606,7 @@
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="27">
         <v>43959</v>
       </c>
       <c r="B9" s="4">
@@ -1616,13 +1646,13 @@
         <f t="shared" si="1"/>
         <v>1466.9286281666666</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -1733,7 +1763,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="27">
         <v>43964</v>
       </c>
       <c r="B14" s="4">
@@ -1775,7 +1805,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="27">
         <v>43965</v>
       </c>
       <c r="B15" s="4">
@@ -1817,7 +1847,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="27">
         <v>43966</v>
       </c>
       <c r="B16" s="4">
@@ -1834,9 +1864,9 @@
         <v>5216.236372233333</v>
       </c>
       <c r="Q16" s="3"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1855,9 +1885,9 @@
         <f t="shared" si="1"/>
         <v>417.05666816666667</v>
       </c>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1876,21 +1906,21 @@
         <f t="shared" si="1"/>
         <v>656.77028236666672</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
       <c r="W18" s="18"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1939,9 +1969,9 @@
       <c r="V19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1960,7 +1990,7 @@
         <f t="shared" si="1"/>
         <v>1748.7237385999999</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="20">
         <v>44409</v>
       </c>
       <c r="N20" s="4">
@@ -1976,7 +2006,7 @@
         <f t="shared" ref="Q20:Q72" si="6">AVERAGE(N20:P20)</f>
         <v>1303.8103124000002</v>
       </c>
-      <c r="R20" s="22">
+      <c r="R20" s="20">
         <v>44378</v>
       </c>
       <c r="S20" s="4">
@@ -1992,12 +2022,12 @@
         <f t="shared" ref="V20:V32" si="7">AVERAGE(S20:U20)</f>
         <v>14571.995809800001</v>
       </c>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="27">
         <v>43971</v>
       </c>
       <c r="B21" s="4">
@@ -2013,7 +2043,7 @@
         <f t="shared" si="1"/>
         <v>3992.9376697666667</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="20">
         <v>44411</v>
       </c>
       <c r="N21" s="4">
@@ -2029,7 +2059,7 @@
         <f t="shared" si="6"/>
         <v>962.55379413333333</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="20">
         <v>44379</v>
       </c>
       <c r="S21" s="4">
@@ -2045,12 +2075,12 @@
         <f t="shared" si="7"/>
         <v>495.9935094999999</v>
       </c>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="27">
         <v>43972</v>
       </c>
       <c r="B22" s="4">
@@ -2066,7 +2096,7 @@
         <f t="shared" si="1"/>
         <v>5478.0679700000001</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="20">
         <v>44412</v>
       </c>
       <c r="N22" s="4">
@@ -2082,7 +2112,7 @@
         <f t="shared" si="6"/>
         <v>457.21794483333332</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="20">
         <v>44380</v>
       </c>
       <c r="S22" s="4">
@@ -2098,9 +2128,9 @@
         <f t="shared" si="7"/>
         <v>12715.126454099998</v>
       </c>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -2119,7 +2149,7 @@
         <f t="shared" si="1"/>
         <v>730.38584859999992</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="20">
         <v>44413</v>
       </c>
       <c r="N23" s="4">
@@ -2135,7 +2165,7 @@
         <f t="shared" si="6"/>
         <v>5213.7168678200005</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="20">
         <v>44381</v>
       </c>
       <c r="S23" s="4">
@@ -2151,12 +2181,12 @@
         <f t="shared" si="7"/>
         <v>513.54227473333333</v>
       </c>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="27">
         <v>43974</v>
       </c>
       <c r="B24" s="4">
@@ -2172,7 +2202,7 @@
         <f t="shared" si="1"/>
         <v>11605.432321466666</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="20">
         <v>44415</v>
       </c>
       <c r="N24" s="4">
@@ -2188,7 +2218,7 @@
         <f t="shared" si="6"/>
         <v>4448.2207847</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R24" s="20">
         <v>44382</v>
       </c>
       <c r="S24" s="4">
@@ -2204,9 +2234,9 @@
         <f t="shared" si="7"/>
         <v>622.8597589333333</v>
       </c>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -2225,7 +2255,7 @@
         <f t="shared" si="1"/>
         <v>1547.7795879333332</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="20">
         <v>44416</v>
       </c>
       <c r="N25" s="4">
@@ -2241,7 +2271,7 @@
         <f t="shared" si="6"/>
         <v>668.5902593666666</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="20">
         <v>44383</v>
       </c>
       <c r="S25" s="4">
@@ -2275,7 +2305,7 @@
         <f t="shared" si="1"/>
         <v>289.46458336000001</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="20">
         <v>44417</v>
       </c>
       <c r="N26" s="4">
@@ -2291,7 +2321,7 @@
         <f t="shared" si="6"/>
         <v>517.85503989999995</v>
       </c>
-      <c r="R26" s="22">
+      <c r="R26" s="20">
         <v>44384</v>
       </c>
       <c r="S26" s="4">
@@ -2325,7 +2355,7 @@
         <f t="shared" si="1"/>
         <v>1442.7387576333333</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="20">
         <v>44418</v>
       </c>
       <c r="N27" s="4">
@@ -2341,7 +2371,7 @@
         <f t="shared" si="6"/>
         <v>6628.2970639000005</v>
       </c>
-      <c r="R27" s="22">
+      <c r="R27" s="20">
         <v>44385</v>
       </c>
       <c r="S27" s="4">
@@ -2375,7 +2405,7 @@
         <f t="shared" si="1"/>
         <v>453.97184046666672</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="20">
         <v>44419</v>
       </c>
       <c r="N28" s="4">
@@ -2391,7 +2421,7 @@
         <f t="shared" si="6"/>
         <v>34126.668890466666</v>
       </c>
-      <c r="R28" s="22">
+      <c r="R28" s="20">
         <v>44386</v>
       </c>
       <c r="S28" s="4">
@@ -2425,7 +2455,7 @@
         <f t="shared" si="1"/>
         <v>408.10795036666667</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="20">
         <v>44420</v>
       </c>
       <c r="N29" s="4">
@@ -2441,7 +2471,7 @@
         <f t="shared" si="6"/>
         <v>27770.258179333334</v>
       </c>
-      <c r="R29" s="22">
+      <c r="R29" s="20">
         <v>44387</v>
       </c>
       <c r="S29" s="4">
@@ -2475,7 +2505,7 @@
         <f t="shared" si="1"/>
         <v>1323.3570415000002</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="20">
         <v>44421</v>
       </c>
       <c r="N30" s="4">
@@ -2491,7 +2521,7 @@
         <f t="shared" si="6"/>
         <v>8161.5320027666676</v>
       </c>
-      <c r="R30" s="22">
+      <c r="R30" s="20">
         <v>44388</v>
       </c>
       <c r="S30" s="4">
@@ -2509,7 +2539,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="27">
         <v>43981</v>
       </c>
       <c r="B31" s="4">
@@ -2525,7 +2555,7 @@
         <f t="shared" si="1"/>
         <v>19955.442585333334</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="20">
         <v>44422</v>
       </c>
       <c r="N31" s="4">
@@ -2541,7 +2571,7 @@
         <f t="shared" si="6"/>
         <v>18058.747581333333</v>
       </c>
-      <c r="R31" s="22">
+      <c r="R31" s="20">
         <v>44389</v>
       </c>
       <c r="S31" s="4">
@@ -2575,7 +2605,7 @@
         <f t="shared" si="1"/>
         <v>2153.5866923333333</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="20">
         <v>44426</v>
       </c>
       <c r="N32" s="4">
@@ -2591,7 +2621,7 @@
         <f t="shared" si="6"/>
         <v>11711.924960266666</v>
       </c>
-      <c r="R32" s="22">
+      <c r="R32" s="20">
         <v>44390</v>
       </c>
       <c r="S32" s="4">
@@ -2609,7 +2639,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="27">
         <v>43983</v>
       </c>
       <c r="B33" s="4">
@@ -2625,7 +2655,7 @@
         <f t="shared" si="1"/>
         <v>33188.880143633338</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="20">
         <v>44427</v>
       </c>
       <c r="N33" s="4">
@@ -2641,7 +2671,7 @@
         <f t="shared" si="6"/>
         <v>1197.0168194999999</v>
       </c>
-      <c r="R33" s="22"/>
+      <c r="R33" s="20"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -2660,7 +2690,7 @@
         <f t="shared" si="1"/>
         <v>697.38264680000009</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="20">
         <v>44428</v>
       </c>
       <c r="N34" s="4">
@@ -2676,7 +2706,7 @@
         <f t="shared" si="6"/>
         <v>13564.254768033332</v>
       </c>
-      <c r="R34" s="22"/>
+      <c r="R34" s="20"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -2695,7 +2725,7 @@
         <f t="shared" si="1"/>
         <v>371.27181373333337</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="20">
         <v>44429</v>
       </c>
       <c r="N35" s="4">
@@ -2711,7 +2741,7 @@
         <f t="shared" si="6"/>
         <v>9737.9224293666666</v>
       </c>
-      <c r="R35" s="22"/>
+      <c r="R35" s="20"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -2730,7 +2760,7 @@
         <f t="shared" si="1"/>
         <v>842.57817083333339</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="20">
         <v>44430</v>
       </c>
       <c r="N36" s="4">
@@ -2746,7 +2776,7 @@
         <f t="shared" si="6"/>
         <v>16342.047594260001</v>
       </c>
-      <c r="R36" s="22"/>
+      <c r="R36" s="20"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -2765,7 +2795,7 @@
         <f t="shared" si="1"/>
         <v>498.56729320000005</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="20">
         <v>44431</v>
       </c>
       <c r="N37" s="4">
@@ -2781,7 +2811,7 @@
         <f t="shared" si="6"/>
         <v>31247.289870333338</v>
       </c>
-      <c r="R37" s="22"/>
+      <c r="R37" s="20"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -2800,7 +2830,7 @@
         <f t="shared" si="1"/>
         <v>396.67545303333333</v>
       </c>
-      <c r="M38" s="22">
+      <c r="M38" s="20">
         <v>44432</v>
       </c>
       <c r="N38" s="4">
@@ -2816,7 +2846,7 @@
         <f t="shared" si="6"/>
         <v>6065.8615407666684</v>
       </c>
-      <c r="R38" s="22"/>
+      <c r="R38" s="20"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -2835,7 +2865,7 @@
         <f t="shared" si="1"/>
         <v>490.47045073333339</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="20">
         <v>44433</v>
       </c>
       <c r="N39" s="4">
@@ -2851,7 +2881,7 @@
         <f t="shared" si="6"/>
         <v>2483.7191051666664</v>
       </c>
-      <c r="R39" s="22"/>
+      <c r="R39" s="20"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -2870,7 +2900,7 @@
         <f t="shared" si="1"/>
         <v>531.92628653333338</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="20">
         <v>44434</v>
       </c>
       <c r="N40" s="4">
@@ -2886,7 +2916,7 @@
         <f t="shared" si="6"/>
         <v>479.89260489999998</v>
       </c>
-      <c r="R40" s="22"/>
+      <c r="R40" s="20"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -2905,7 +2935,7 @@
         <f t="shared" si="1"/>
         <v>445.15376796666663</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="20">
         <v>44435</v>
       </c>
       <c r="N41" s="4">
@@ -2921,7 +2951,7 @@
         <f t="shared" si="6"/>
         <v>366.51245303333332</v>
       </c>
-      <c r="R41" s="22"/>
+      <c r="R41" s="20"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -2940,7 +2970,7 @@
         <f t="shared" si="1"/>
         <v>475.52052069999996</v>
       </c>
-      <c r="M42" s="22">
+      <c r="M42" s="20">
         <v>44436</v>
       </c>
       <c r="N42" s="4">
@@ -2956,7 +2986,7 @@
         <f t="shared" si="6"/>
         <v>1387.2601827333335</v>
       </c>
-      <c r="R42" s="22"/>
+      <c r="R42" s="20"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -2975,7 +3005,7 @@
         <f t="shared" si="1"/>
         <v>407.72754633333329</v>
       </c>
-      <c r="M43" s="22">
+      <c r="M43" s="20">
         <v>44437</v>
       </c>
       <c r="N43" s="4">
@@ -3010,7 +3040,7 @@
         <f t="shared" si="1"/>
         <v>454.08215169999994</v>
       </c>
-      <c r="M44" s="22">
+      <c r="M44" s="20">
         <v>44438</v>
       </c>
       <c r="N44" s="4">
@@ -3045,7 +3075,7 @@
         <f t="shared" si="1"/>
         <v>472.58796296666668</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="20">
         <v>44441</v>
       </c>
       <c r="N45" s="4">
@@ -3080,7 +3110,7 @@
         <f t="shared" si="1"/>
         <v>407.77021080000003</v>
       </c>
-      <c r="M46" s="22">
+      <c r="M46" s="20">
         <v>44442</v>
       </c>
       <c r="N46" s="4">
@@ -3115,7 +3145,7 @@
         <f t="shared" si="1"/>
         <v>448.13356479999999</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M47" s="20">
         <v>44443</v>
       </c>
       <c r="N47" s="4">
@@ -3150,7 +3180,7 @@
         <f t="shared" si="1"/>
         <v>506.2827208033334</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M48" s="20">
         <v>44444</v>
       </c>
       <c r="N48" s="4">
@@ -3185,7 +3215,7 @@
         <f t="shared" si="1"/>
         <v>201.94595223333332</v>
       </c>
-      <c r="M49" s="22">
+      <c r="M49" s="20">
         <v>44445</v>
       </c>
       <c r="N49" s="4">
@@ -3220,7 +3250,7 @@
         <f t="shared" si="1"/>
         <v>402.71342593333333</v>
       </c>
-      <c r="M50" s="22">
+      <c r="M50" s="20">
         <v>44446</v>
       </c>
       <c r="N50" s="4">
@@ -3255,7 +3285,7 @@
         <f t="shared" si="1"/>
         <v>457.1585648333334</v>
       </c>
-      <c r="M51" s="22">
+      <c r="M51" s="20">
         <v>44447</v>
       </c>
       <c r="N51" s="4">
@@ -3290,7 +3320,7 @@
         <f t="shared" si="1"/>
         <v>305.36862187666668</v>
       </c>
-      <c r="M52" s="22">
+      <c r="M52" s="20">
         <v>44448</v>
       </c>
       <c r="N52" s="4">
@@ -3325,7 +3355,7 @@
         <f t="shared" si="1"/>
         <v>410.42314816666664</v>
       </c>
-      <c r="M53" s="22">
+      <c r="M53" s="20">
         <v>44449</v>
       </c>
       <c r="N53" s="4">
@@ -3360,7 +3390,7 @@
         <f t="shared" si="1"/>
         <v>596.4893800333333</v>
       </c>
-      <c r="M54" s="22">
+      <c r="M54" s="20">
         <v>44450</v>
       </c>
       <c r="N54" s="4">
@@ -3395,7 +3425,7 @@
         <f t="shared" si="1"/>
         <v>598.0952814333333</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M55" s="20">
         <v>44452</v>
       </c>
       <c r="N55" s="4">
@@ -3430,7 +3460,7 @@
         <f t="shared" si="1"/>
         <v>1736.1540158666667</v>
       </c>
-      <c r="M56" s="22">
+      <c r="M56" s="20">
         <v>44453</v>
       </c>
       <c r="N56" s="4">
@@ -3465,7 +3495,7 @@
         <f t="shared" si="1"/>
         <v>524.81992306666666</v>
       </c>
-      <c r="M57" s="22">
+      <c r="M57" s="20">
         <v>44454</v>
       </c>
       <c r="N57" s="4">
@@ -3500,7 +3530,7 @@
         <f t="shared" si="1"/>
         <v>637.12800926666671</v>
       </c>
-      <c r="M58" s="22">
+      <c r="M58" s="20">
         <v>44455</v>
       </c>
       <c r="N58" s="4">
@@ -3535,7 +3565,7 @@
         <f t="shared" si="1"/>
         <v>428.12866406666666</v>
       </c>
-      <c r="M59" s="22">
+      <c r="M59" s="20">
         <v>44456</v>
       </c>
       <c r="N59" s="4">
@@ -3554,7 +3584,7 @@
       <c r="R59" s="19"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="A60" s="27">
         <v>44010</v>
       </c>
       <c r="B60" s="4">
@@ -3570,7 +3600,7 @@
         <f t="shared" si="1"/>
         <v>17337.206628600001</v>
       </c>
-      <c r="M60" s="22">
+      <c r="M60" s="20">
         <v>44457</v>
       </c>
       <c r="N60" s="4">
@@ -3589,7 +3619,7 @@
       <c r="R60" s="19"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="A61" s="27">
         <v>44011</v>
       </c>
       <c r="B61" s="4">
@@ -3605,7 +3635,7 @@
         <f t="shared" si="1"/>
         <v>28292.276117533333</v>
       </c>
-      <c r="M61" s="22">
+      <c r="M61" s="20">
         <v>44458</v>
       </c>
       <c r="N61" s="4">
@@ -3624,7 +3654,7 @@
       <c r="R61" s="19"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="A62" s="27">
         <v>44012</v>
       </c>
       <c r="B62" s="4">
@@ -3640,7 +3670,7 @@
         <f t="shared" si="1"/>
         <v>20586.3588289</v>
       </c>
-      <c r="M62" s="22">
+      <c r="M62" s="20">
         <v>44459</v>
       </c>
       <c r="N62" s="4">
@@ -3659,7 +3689,7 @@
       <c r="R62" s="19"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+      <c r="A63" s="27">
         <v>44013</v>
       </c>
       <c r="B63" s="4">
@@ -3675,7 +3705,7 @@
         <f t="shared" si="1"/>
         <v>14571.995809800001</v>
       </c>
-      <c r="M63" s="22">
+      <c r="M63" s="20">
         <v>44460</v>
       </c>
       <c r="N63" s="4">
@@ -3710,7 +3740,7 @@
         <f t="shared" si="1"/>
         <v>495.9935094999999</v>
       </c>
-      <c r="M64" s="22">
+      <c r="M64" s="20">
         <v>44461</v>
       </c>
       <c r="N64" s="4">
@@ -3729,7 +3759,7 @@
       <c r="R64" s="19"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="A65" s="27">
         <v>44015</v>
       </c>
       <c r="B65" s="4">
@@ -3745,7 +3775,7 @@
         <f t="shared" si="1"/>
         <v>12715.126454099998</v>
       </c>
-      <c r="M65" s="22">
+      <c r="M65" s="20">
         <v>44462</v>
       </c>
       <c r="N65" s="4">
@@ -3761,11 +3791,11 @@
         <f t="shared" si="6"/>
         <v>6059.8158546999994</v>
       </c>
-      <c r="R65" s="23"/>
-      <c r="S65" s="24"/>
-      <c r="T65" s="24"/>
-      <c r="U65" s="24"/>
-      <c r="V65" s="24"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="22"/>
+      <c r="T65" s="22"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
@@ -3784,7 +3814,7 @@
         <f t="shared" si="1"/>
         <v>513.54227473333333</v>
       </c>
-      <c r="M66" s="22">
+      <c r="M66" s="20">
         <v>44463</v>
       </c>
       <c r="N66" s="4">
@@ -3800,11 +3830,11 @@
         <f t="shared" si="6"/>
         <v>7435.5030612666669</v>
       </c>
-      <c r="R66" s="23"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="24"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
@@ -3823,7 +3853,7 @@
         <f t="shared" ref="E67:E130" si="8">AVERAGE(B67:D67)</f>
         <v>622.8597589333333</v>
       </c>
-      <c r="M67" s="22">
+      <c r="M67" s="20">
         <v>44464</v>
       </c>
       <c r="N67" s="4">
@@ -3839,11 +3869,11 @@
         <f t="shared" si="6"/>
         <v>1699.3635962999999</v>
       </c>
-      <c r="R67" s="23"/>
-      <c r="S67" s="24"/>
-      <c r="T67" s="24"/>
-      <c r="U67" s="24"/>
-      <c r="V67" s="24"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
@@ -3862,7 +3892,7 @@
         <f t="shared" si="8"/>
         <v>584.36296296666671</v>
       </c>
-      <c r="M68" s="22">
+      <c r="M68" s="20">
         <v>44465</v>
       </c>
       <c r="N68" s="4">
@@ -3878,11 +3908,11 @@
         <f t="shared" si="6"/>
         <v>14536.317298100001</v>
       </c>
-      <c r="R68" s="23"/>
-      <c r="S68" s="24"/>
-      <c r="T68" s="24"/>
-      <c r="U68" s="24"/>
-      <c r="V68" s="24"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
@@ -3901,7 +3931,7 @@
         <f t="shared" si="8"/>
         <v>574.14722223333331</v>
       </c>
-      <c r="M69" s="22">
+      <c r="M69" s="20">
         <v>44466</v>
       </c>
       <c r="N69" s="4">
@@ -3917,11 +3947,11 @@
         <f t="shared" si="6"/>
         <v>425.12581449999993</v>
       </c>
-      <c r="R69" s="23"/>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="24"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
@@ -3940,7 +3970,7 @@
         <f t="shared" si="8"/>
         <v>486.63009259999995</v>
       </c>
-      <c r="M70" s="22">
+      <c r="M70" s="20">
         <v>44467</v>
       </c>
       <c r="N70" s="4">
@@ -3956,11 +3986,11 @@
         <f t="shared" si="6"/>
         <v>2093.2665062333331</v>
       </c>
-      <c r="R70" s="23"/>
-      <c r="S70" s="24"/>
-      <c r="T70" s="24"/>
-      <c r="U70" s="24"/>
-      <c r="V70" s="24"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="22"/>
+      <c r="T70" s="22"/>
+      <c r="U70" s="22"/>
+      <c r="V70" s="22"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -3979,7 +4009,7 @@
         <f t="shared" si="8"/>
         <v>570.86597223333331</v>
       </c>
-      <c r="M71" s="22">
+      <c r="M71" s="20">
         <v>44468</v>
       </c>
       <c r="N71" s="4">
@@ -3995,11 +4025,11 @@
         <f t="shared" si="6"/>
         <v>23975.225414</v>
       </c>
-      <c r="R71" s="23"/>
-      <c r="S71" s="24"/>
-      <c r="T71" s="24"/>
-      <c r="U71" s="24"/>
-      <c r="V71" s="24"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="22"/>
+      <c r="T71" s="22"/>
+      <c r="U71" s="22"/>
+      <c r="V71" s="22"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
@@ -4018,7 +4048,7 @@
         <f t="shared" si="8"/>
         <v>566.91696926666668</v>
       </c>
-      <c r="M72" s="22">
+      <c r="M72" s="20">
         <v>44469</v>
       </c>
       <c r="N72" s="4">
@@ -4034,11 +4064,11 @@
         <f t="shared" si="6"/>
         <v>14382.368912</v>
       </c>
-      <c r="R72" s="23"/>
-      <c r="S72" s="24"/>
-      <c r="T72" s="24"/>
-      <c r="U72" s="24"/>
-      <c r="V72" s="24"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="22"/>
+      <c r="T72" s="22"/>
+      <c r="U72" s="22"/>
+      <c r="V72" s="22"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
@@ -4059,7 +4089,7 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="A74" s="27">
         <v>44024</v>
       </c>
       <c r="B74" s="4">
@@ -4113,7 +4143,7 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+      <c r="A75" s="27">
         <v>44025</v>
       </c>
       <c r="B75" s="4">
@@ -4178,7 +4208,7 @@
         <v>0.1458777608079555</v>
       </c>
       <c r="P76">
-        <f t="shared" ref="O76:Q76" si="11">_xlfn.T.TEST(P20:P72,U20:U32,1,2)</f>
+        <f t="shared" ref="P76:Q76" si="11">_xlfn.T.TEST(P20:P72,U20:U32,1,2)</f>
         <v>0.12704822958095024</v>
       </c>
       <c r="Q76">
@@ -4241,7 +4271,7 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+      <c r="A80" s="27">
         <v>44030</v>
       </c>
       <c r="B80" s="4">
@@ -4258,8 +4288,8 @@
         <v>11760.668518133332</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="27">
         <v>44031</v>
       </c>
       <c r="B81" s="4">
@@ -4276,7 +4306,7 @@
         <v>21457.803016733335</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44032</v>
       </c>
@@ -4293,8 +4323,21 @@
         <f t="shared" si="8"/>
         <v>996.94147136666663</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M82" s="24"/>
+      <c r="N82" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O82" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P82" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q82" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44033</v>
       </c>
@@ -4311,8 +4354,23 @@
         <f t="shared" si="8"/>
         <v>1295.5653483333333</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M83" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83">
+        <v>11433.546786554716</v>
+      </c>
+      <c r="O83">
+        <v>9869.3820885033947</v>
+      </c>
+      <c r="P83">
+        <v>4175.8333941066039</v>
+      </c>
+      <c r="Q83">
+        <v>8492.9207563882355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44034</v>
       </c>
@@ -4329,8 +4387,23 @@
         <f t="shared" si="8"/>
         <v>1728.6481479666663</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M84" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84">
+        <v>6762.1248253230769</v>
+      </c>
+      <c r="O84">
+        <v>3950.4221733769232</v>
+      </c>
+      <c r="P84">
+        <v>272.9651823615385</v>
+      </c>
+      <c r="Q84">
+        <v>3661.8373936871794</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44035</v>
       </c>
@@ -4347,8 +4420,23 @@
         <f t="shared" si="8"/>
         <v>2431.1920546666665</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M85" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N85" s="15">
+        <v>0.69082161035210565</v>
+      </c>
+      <c r="O85" s="15">
+        <v>1.4983107261335544</v>
+      </c>
+      <c r="P85" s="15">
+        <v>14.298044087453512</v>
+      </c>
+      <c r="Q85" s="15">
+        <v>1.3193058138052762</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44036</v>
       </c>
@@ -4365,8 +4453,23 @@
         <f t="shared" si="8"/>
         <v>3127.1495901666663</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M86" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N86">
+        <v>0.24421060802939715</v>
+      </c>
+      <c r="O86">
+        <v>0.1458777608079555</v>
+      </c>
+      <c r="P86">
+        <v>0.12704822958095024</v>
+      </c>
+      <c r="Q86">
+        <v>3.585488794009821E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44037</v>
       </c>
@@ -4384,7 +4487,7 @@
         <v>2063.5097221000001</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44038</v>
       </c>
@@ -4402,7 +4505,7 @@
         <v>451.45580993333334</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44039</v>
       </c>
@@ -4420,7 +4523,7 @@
         <v>590.9932708</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44040</v>
       </c>
@@ -4435,7 +4538,7 @@
         <v>407.14489225</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44041</v>
       </c>
@@ -4450,7 +4553,7 @@
         <v>353.98400559999999</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44042</v>
       </c>
@@ -4468,7 +4571,7 @@
         <v>880.24961086666656</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44043</v>
       </c>
@@ -4486,7 +4589,7 @@
         <v>2034.0609062333333</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44044</v>
       </c>
@@ -4504,7 +4607,7 @@
         <v>1303.8103124000002</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44045</v>
       </c>
@@ -4522,7 +4625,7 @@
         <v>583.84815690000005</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44046</v>
       </c>
@@ -4559,7 +4662,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+      <c r="A98" s="27">
         <v>44048</v>
       </c>
       <c r="B98" s="4">
@@ -4577,7 +4680,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+      <c r="A99" s="27">
         <v>44049</v>
       </c>
       <c r="B99" s="4">
@@ -4667,7 +4770,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+      <c r="A104" s="27">
         <v>44054</v>
       </c>
       <c r="B104" s="4">
@@ -4685,7 +4788,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+      <c r="A105" s="27">
         <v>44055</v>
       </c>
       <c r="B105" s="4">
@@ -4703,7 +4806,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+      <c r="A106" s="27">
         <v>44056</v>
       </c>
       <c r="B106" s="4">
@@ -4721,7 +4824,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+      <c r="A107" s="27">
         <v>44057</v>
       </c>
       <c r="B107" s="4">
@@ -4739,7 +4842,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+      <c r="A108" s="27">
         <v>44058</v>
       </c>
       <c r="B108" s="4">
@@ -4757,7 +4860,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+      <c r="A109" s="27">
         <v>44059</v>
       </c>
       <c r="B109" s="4">
@@ -4775,7 +4878,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+      <c r="A110" s="27">
         <v>44060</v>
       </c>
       <c r="B110" s="4">
@@ -4793,7 +4896,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+      <c r="A111" s="27">
         <v>44061</v>
       </c>
       <c r="B111" s="4">
@@ -4829,7 +4932,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+      <c r="A113" s="27">
         <v>44063</v>
       </c>
       <c r="B113" s="4">
@@ -4847,7 +4950,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+      <c r="A114" s="27">
         <v>44064</v>
       </c>
       <c r="B114" s="4">
@@ -4865,7 +4968,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+      <c r="A115" s="27">
         <v>44065</v>
       </c>
       <c r="B115" s="4">
@@ -4883,7 +4986,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+      <c r="A116" s="27">
         <v>44066</v>
       </c>
       <c r="B116" s="4">
@@ -4901,7 +5004,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+      <c r="A117" s="27">
         <v>44067</v>
       </c>
       <c r="B117" s="4">
@@ -4919,7 +5022,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
+      <c r="A118" s="27">
         <v>44068</v>
       </c>
       <c r="B118" s="4">
@@ -5009,7 +5112,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
+      <c r="A123" s="27">
         <v>44073</v>
       </c>
       <c r="B123" s="4">
@@ -5027,7 +5130,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
+      <c r="A124" s="27">
         <v>44074</v>
       </c>
       <c r="B124" s="4">
@@ -5189,7 +5292,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
+      <c r="A133" s="27">
         <v>44083</v>
       </c>
       <c r="B133" s="4">
@@ -5207,7 +5310,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+      <c r="A134" s="27">
         <v>44084</v>
       </c>
       <c r="B134" s="4">
@@ -5225,7 +5328,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
+      <c r="A135" s="27">
         <v>44085</v>
       </c>
       <c r="B135" s="4">
@@ -5243,7 +5346,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+      <c r="A136" s="27">
         <v>44086</v>
       </c>
       <c r="B136" s="4">
@@ -5261,7 +5364,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
+      <c r="A137" s="27">
         <v>44087</v>
       </c>
       <c r="B137" s="4">
@@ -5279,7 +5382,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
+      <c r="A138" s="27">
         <v>44088</v>
       </c>
       <c r="B138" s="4">
@@ -5297,7 +5400,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
+      <c r="A139" s="27">
         <v>44089</v>
       </c>
       <c r="B139" s="4">
@@ -5315,7 +5418,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+      <c r="A140" s="27">
         <v>44090</v>
       </c>
       <c r="B140" s="4">
@@ -5333,7 +5436,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+      <c r="A141" s="27">
         <v>44091</v>
       </c>
       <c r="B141" s="4">
@@ -5351,7 +5454,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
+      <c r="A142" s="27">
         <v>44092</v>
       </c>
       <c r="B142" s="4">
@@ -5369,7 +5472,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
+      <c r="A143" s="27">
         <v>44093</v>
       </c>
       <c r="B143" s="4">
@@ -5387,7 +5490,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
+      <c r="A144" s="27">
         <v>44094</v>
       </c>
       <c r="B144" s="4">
@@ -5405,7 +5508,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
+      <c r="A145" s="27">
         <v>44095</v>
       </c>
       <c r="B145" s="4">
@@ -5423,7 +5526,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
+      <c r="A146" s="27">
         <v>44096</v>
       </c>
       <c r="B146" s="4">
@@ -5666,7 +5769,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
+      <c r="A166" s="27">
         <v>44116</v>
       </c>
       <c r="B166" s="4">
@@ -5684,7 +5787,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
+      <c r="A167" s="27">
         <v>44117</v>
       </c>
       <c r="B167" s="4">
@@ -5702,7 +5805,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
+      <c r="A168" s="27">
         <v>44118</v>
       </c>
       <c r="B168" s="4">
@@ -5720,7 +5823,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
+      <c r="A169" s="27">
         <v>44119</v>
       </c>
       <c r="B169" s="4">
@@ -5882,7 +5985,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
+      <c r="A178" s="27">
         <v>44128</v>
       </c>
       <c r="B178" s="4">
@@ -5936,7 +6039,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
+      <c r="A181" s="27">
         <v>44131</v>
       </c>
       <c r="B181" s="4">
@@ -5954,7 +6057,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
+      <c r="A182" s="27">
         <v>44132</v>
       </c>
       <c r="B182" s="4">
@@ -5972,7 +6075,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
+      <c r="A183" s="27">
         <v>44133</v>
       </c>
       <c r="B183" s="4">
@@ -5990,7 +6093,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
+      <c r="A184" s="27">
         <v>44134</v>
       </c>
       <c r="B184" s="4">
@@ -6080,7 +6183,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
+      <c r="A189" s="27">
         <v>44139</v>
       </c>
       <c r="B189" s="4">
@@ -6098,7 +6201,7 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
+      <c r="A190" s="27">
         <v>44140</v>
       </c>
       <c r="B190" s="4">
@@ -6188,7 +6291,7 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
+      <c r="A195" s="27">
         <v>44145</v>
       </c>
       <c r="B195" s="4">
@@ -6206,7 +6309,7 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
+      <c r="A196" s="27">
         <v>44146</v>
       </c>
       <c r="B196" s="4">
@@ -6224,7 +6327,7 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
+      <c r="A197" s="27">
         <v>44147</v>
       </c>
       <c r="B197" s="4">
@@ -6242,7 +6345,7 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
+      <c r="A198" s="27">
         <v>44148</v>
       </c>
       <c r="B198" s="4">
@@ -6260,7 +6363,7 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
+      <c r="A199" s="27">
         <v>44149</v>
       </c>
       <c r="B199" s="4">
@@ -6278,7 +6381,7 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
+      <c r="A200" s="27">
         <v>44150</v>
       </c>
       <c r="B200" s="4">
@@ -6296,7 +6399,7 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
+      <c r="A201" s="27">
         <v>44151</v>
       </c>
       <c r="B201" s="4">
@@ -6314,7 +6417,7 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
+      <c r="A202" s="27">
         <v>44152</v>
       </c>
       <c r="B202" s="4">
@@ -6332,7 +6435,7 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
+      <c r="A203" s="27">
         <v>44153</v>
       </c>
       <c r="B203" s="4">
@@ -6368,7 +6471,7 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="1">
+      <c r="A205" s="27">
         <v>44155</v>
       </c>
       <c r="B205" s="4">
@@ -6386,7 +6489,7 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="1">
+      <c r="A206" s="27">
         <v>44156</v>
       </c>
       <c r="B206" s="4">
@@ -6404,7 +6507,7 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="1">
+      <c r="A207" s="27">
         <v>44157</v>
       </c>
       <c r="B207" s="4">
@@ -6422,7 +6525,7 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="1">
+      <c r="A208" s="27">
         <v>44158</v>
       </c>
       <c r="B208" s="4">
@@ -6440,6 +6543,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:D208" xr:uid="{77041EA5-5CE4-4480-A406-9619B24EB558}"/>
   <mergeCells count="3">
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="M1:Q1"/>
